--- a/biology/Zoologie/Cyclothone_pseudopallida/Cyclothone_pseudopallida.xlsx
+++ b/biology/Zoologie/Cyclothone_pseudopallida/Cyclothone_pseudopallida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclothone pseudopallida est une espèce de poissons de la famille des Gonostomatidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Cyclothone pseudopallida a été décrite en 1964 par l'ichtyologiste russe V. A. Mukhacheva (d).
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclothone pseudopallida se rencontre dans les océans Atlantique, Indien et Pacifique, en zone tropicale et tempérée et à une profondeur pouvant atteindre 4 938 m mais, plus généralement, entre 200 de 900 m de profondeur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclothone pseudopallida se rencontre dans les océans Atlantique, Indien et Pacifique, en zone tropicale et tempérée et à une profondeur pouvant atteindre 4 938 m mais, plus généralement, entre 200 de 900 m de profondeur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclothone pseudopallida mesure jusqu'à 58 mm pour les femelles et 46 mm pour les mâles[1]. Sa couleur va du brun clair au brun foncé[1]. C'est une espèce ovipare[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclothone pseudopallida mesure jusqu'à 58 mm pour les femelles et 46 mm pour les mâles. Sa couleur va du brun clair au brun foncé. C'est une espèce ovipare.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composé du préfixe latin pseudo-, « faux », et pallida, lui a été donné en référence à sa grande similitude avec l'espèce Cyclothone pallida[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composé du préfixe latin pseudo-, « faux », et pallida, lui a été donné en référence à sa grande similitude avec l'espèce Cyclothone pallida.
 </t>
         </is>
       </c>
